--- a/Hackpacks/Local Government/Data/LRG Complaints.xlsx
+++ b/Hackpacks/Local Government/Data/LRG Complaints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chhuntin\OneDrive - Microsoft\Software &amp; Labs\Power Platform Hack@Speed\HackPacks\Local Government Hack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chhuntin\Documents\GitHub\HackAtSpeed\Hackpacks\Local Government\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4867D21-2F61-4458-AA46-CEB9DC352826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8840D-BF24-4A5D-B909-47014037CC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A2047B-9236-446C-871D-36AC8C09A132}"/>
   </bookViews>
@@ -2567,7 +2567,7 @@
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
